--- a/converter/data/xlsx/19.9.B_SMJENA.XLSX
+++ b/converter/data/xlsx/19.9.B_SMJENA.XLSX
@@ -10,7 +10,7 @@
     <sheet name="B" sheetId="8" r:id="rId1"/>
     <sheet name="LEGENDA" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -666,7 +666,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,6 +811,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="110">
     <border>
@@ -2237,7 +2243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3357,18 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3384,19 +3402,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3453,7 +3465,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3525,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FDACCE9-9164-C346-DED1-7201DB17C292}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDACCE9-9164-C346-DED1-7201DB17C292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3578,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCBF9480-A426-110E-1BEC-175C5C223001}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBF9480-A426-110E-1BEC-175C5C223001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3631,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{657C7F33-7C75-DB98-F6E9-A7F5A498840C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657C7F33-7C75-DB98-F6E9-A7F5A498840C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3672,7 +3684,7 @@
         <xdr:cNvPr id="10" name="Ravni poveznik sa strelicom 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21B79A4-2EC4-5155-8EF3-A8A78FB9B831}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21B79A4-2EC4-5155-8EF3-A8A78FB9B831}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3737,7 @@
         <xdr:cNvPr id="12" name="Ravni poveznik sa strelicom 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84650B9F-B0DD-3163-DE30-F5693EBD328B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84650B9F-B0DD-3163-DE30-F5693EBD328B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3790,7 @@
         <xdr:cNvPr id="14" name="Ravni poveznik sa strelicom 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C571E8C-A271-FF12-0491-7AF0D5D56E3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C571E8C-A271-FF12-0491-7AF0D5D56E3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3843,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE69420E-822F-9BDB-7ECC-7F79AA176766}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE69420E-822F-9BDB-7ECC-7F79AA176766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4159,8 +4171,8 @@
   </sheetPr>
   <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AJ54" sqref="AJ54"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -4194,98 +4206,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="27" thickBot="1">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="437"/>
-      <c r="C1" s="437"/>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
-      <c r="L1" s="437"/>
-      <c r="M1" s="437"/>
-      <c r="N1" s="437"/>
-      <c r="O1" s="437"/>
-      <c r="P1" s="437"/>
-      <c r="Q1" s="437"/>
-      <c r="R1" s="437"/>
-      <c r="S1" s="437"/>
-      <c r="T1" s="437"/>
-      <c r="U1" s="437"/>
-      <c r="V1" s="437"/>
-      <c r="W1" s="437"/>
-      <c r="X1" s="437"/>
-      <c r="Y1" s="437"/>
-      <c r="Z1" s="437"/>
-      <c r="AA1" s="437"/>
-      <c r="AB1" s="437"/>
-      <c r="AC1" s="437"/>
-      <c r="AD1" s="437"/>
-      <c r="AE1" s="437"/>
-      <c r="AF1" s="437"/>
-      <c r="AG1" s="437"/>
-      <c r="AH1" s="437"/>
-      <c r="AI1" s="437"/>
-      <c r="AJ1" s="437"/>
-      <c r="AK1" s="437"/>
-      <c r="AL1" s="437"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
+      <c r="J1" s="441"/>
+      <c r="K1" s="441"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="441"/>
+      <c r="N1" s="441"/>
+      <c r="O1" s="441"/>
+      <c r="P1" s="441"/>
+      <c r="Q1" s="441"/>
+      <c r="R1" s="441"/>
+      <c r="S1" s="441"/>
+      <c r="T1" s="441"/>
+      <c r="U1" s="441"/>
+      <c r="V1" s="441"/>
+      <c r="W1" s="441"/>
+      <c r="X1" s="441"/>
+      <c r="Y1" s="441"/>
+      <c r="Z1" s="441"/>
+      <c r="AA1" s="441"/>
+      <c r="AB1" s="441"/>
+      <c r="AC1" s="441"/>
+      <c r="AD1" s="441"/>
+      <c r="AE1" s="441"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="441"/>
+      <c r="AH1" s="441"/>
+      <c r="AI1" s="441"/>
+      <c r="AJ1" s="441"/>
+      <c r="AK1" s="441"/>
+      <c r="AL1" s="441"/>
     </row>
     <row r="2" spans="1:39" ht="18">
       <c r="A2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="442" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="441" t="s">
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="439"/>
-      <c r="K2" s="439"/>
-      <c r="L2" s="439"/>
-      <c r="M2" s="439"/>
-      <c r="N2" s="439"/>
-      <c r="O2" s="440"/>
-      <c r="P2" s="438" t="s">
+      <c r="J2" s="443"/>
+      <c r="K2" s="443"/>
+      <c r="L2" s="443"/>
+      <c r="M2" s="443"/>
+      <c r="N2" s="443"/>
+      <c r="O2" s="444"/>
+      <c r="P2" s="442" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="439"/>
-      <c r="R2" s="439"/>
-      <c r="S2" s="439"/>
-      <c r="T2" s="439"/>
-      <c r="U2" s="439"/>
-      <c r="V2" s="440"/>
-      <c r="W2" s="445" t="s">
+      <c r="Q2" s="443"/>
+      <c r="R2" s="443"/>
+      <c r="S2" s="443"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="444"/>
+      <c r="W2" s="449" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="446"/>
-      <c r="Y2" s="446"/>
-      <c r="Z2" s="446"/>
-      <c r="AA2" s="446"/>
-      <c r="AB2" s="446"/>
-      <c r="AC2" s="446"/>
-      <c r="AD2" s="447"/>
-      <c r="AE2" s="442" t="s">
+      <c r="X2" s="450"/>
+      <c r="Y2" s="450"/>
+      <c r="Z2" s="450"/>
+      <c r="AA2" s="450"/>
+      <c r="AB2" s="450"/>
+      <c r="AC2" s="450"/>
+      <c r="AD2" s="451"/>
+      <c r="AE2" s="446" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="443"/>
-      <c r="AG2" s="443"/>
-      <c r="AH2" s="443"/>
-      <c r="AI2" s="443"/>
-      <c r="AJ2" s="443"/>
-      <c r="AK2" s="443"/>
-      <c r="AL2" s="444"/>
+      <c r="AF2" s="447"/>
+      <c r="AG2" s="447"/>
+      <c r="AH2" s="447"/>
+      <c r="AI2" s="447"/>
+      <c r="AJ2" s="447"/>
+      <c r="AK2" s="447"/>
+      <c r="AL2" s="448"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1">
       <c r="A3" s="11" t="s">
@@ -7053,8 +7065,12 @@
       <c r="M41" s="102"/>
       <c r="N41" s="102"/>
       <c r="O41" s="141"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="102"/>
+      <c r="P41" s="453" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="454" t="s">
+        <v>94</v>
+      </c>
       <c r="R41" s="102"/>
       <c r="S41" s="101"/>
       <c r="T41" s="101"/>
@@ -7623,12 +7639,8 @@
       <c r="O50" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="P50" s="238" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q50" s="237" t="s">
-        <v>94</v>
-      </c>
+      <c r="P50" s="238"/>
+      <c r="Q50" s="237"/>
       <c r="R50" s="239" t="s">
         <v>94</v>
       </c>
@@ -8465,70 +8477,70 @@
       <c r="A61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="448" t="s">
+      <c r="B61" s="437" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="449"/>
-      <c r="D61" s="449"/>
-      <c r="E61" s="449"/>
-      <c r="F61" s="449"/>
-      <c r="G61" s="449"/>
-      <c r="H61" s="451"/>
-      <c r="I61" s="448" t="s">
+      <c r="C61" s="438"/>
+      <c r="D61" s="438"/>
+      <c r="E61" s="438"/>
+      <c r="F61" s="438"/>
+      <c r="G61" s="438"/>
+      <c r="H61" s="440"/>
+      <c r="I61" s="437" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="449"/>
-      <c r="K61" s="449"/>
-      <c r="L61" s="449"/>
-      <c r="M61" s="449"/>
-      <c r="N61" s="449"/>
-      <c r="O61" s="451"/>
-      <c r="P61" s="448" t="s">
+      <c r="J61" s="438"/>
+      <c r="K61" s="438"/>
+      <c r="L61" s="438"/>
+      <c r="M61" s="438"/>
+      <c r="N61" s="438"/>
+      <c r="O61" s="440"/>
+      <c r="P61" s="437" t="s">
         <v>91</v>
       </c>
-      <c r="Q61" s="449"/>
-      <c r="R61" s="449"/>
-      <c r="S61" s="449"/>
-      <c r="T61" s="449"/>
-      <c r="U61" s="449"/>
-      <c r="V61" s="451"/>
+      <c r="Q61" s="438"/>
+      <c r="R61" s="438"/>
+      <c r="S61" s="438"/>
+      <c r="T61" s="438"/>
+      <c r="U61" s="438"/>
+      <c r="V61" s="440"/>
       <c r="W61" s="208"/>
-      <c r="X61" s="448" t="s">
+      <c r="X61" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="Y61" s="449"/>
-      <c r="Z61" s="449"/>
-      <c r="AA61" s="449"/>
-      <c r="AB61" s="449"/>
-      <c r="AC61" s="449"/>
-      <c r="AD61" s="451"/>
+      <c r="Y61" s="438"/>
+      <c r="Z61" s="438"/>
+      <c r="AA61" s="438"/>
+      <c r="AB61" s="438"/>
+      <c r="AC61" s="438"/>
+      <c r="AD61" s="440"/>
       <c r="AE61" s="208"/>
-      <c r="AF61" s="448" t="s">
+      <c r="AF61" s="437" t="s">
         <v>28</v>
       </c>
-      <c r="AG61" s="449"/>
-      <c r="AH61" s="449"/>
-      <c r="AI61" s="449"/>
-      <c r="AJ61" s="449"/>
-      <c r="AK61" s="449"/>
-      <c r="AL61" s="450"/>
+      <c r="AG61" s="438"/>
+      <c r="AH61" s="438"/>
+      <c r="AI61" s="438"/>
+      <c r="AJ61" s="438"/>
+      <c r="AK61" s="438"/>
+      <c r="AL61" s="439"/>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF61:AL61"/>
-    <mergeCell ref="X61:AD61"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="I61:O61"/>
-    <mergeCell ref="P61:V61"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AF61:AL61"/>
+    <mergeCell ref="X61:AD61"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="I61:O61"/>
+    <mergeCell ref="P61:V61"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
